--- a/project/Python/owlapptest/heroes.xlsx
+++ b/project/Python/owlapptest/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\owlapptest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B88E264-C614-4B1B-868A-07BCB211AFD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821273D-1BC0-41E1-A774-3A4866557B15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="21915" windowHeight="12075" xr2:uid="{B45BA2DF-27AB-4BED-8F70-82924E02354E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B45BA2DF-27AB-4BED-8F70-82924E02354E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wrecking-ball</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>破坏球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,6 +265,10 @@
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wreckingball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,13 +661,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,10 +774,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,10 +851,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,10 +862,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,10 +884,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,10 +895,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,10 +906,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,10 +917,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,10 +928,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,10 +939,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,10 +950,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,10 +972,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,10 +983,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
